--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -350,15 +350,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
         <v>0</v>
+      </c>
+      <c r="B1">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
